--- a/01. Descriptives/out/Table 2.xlsx
+++ b/01. Descriptives/out/Table 2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="31">
   <si>
     <t>10-49 trab</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>smi</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>women</t>
   </si>
 </sst>
 </file>
@@ -136,431 +151,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.21219798922538757</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.15749599039554596</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.19349417090415955</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.1340169757604599</v>
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.076571449637413025</v>
+        <v>0.21219798922538757</v>
       </c>
       <c r="C2" s="1">
-        <v>0.18527555465698242</v>
+        <v>0.15749599039554596</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2434806227684021</v>
+        <v>0.19349417090415955</v>
       </c>
       <c r="E2" s="1">
-        <v>0.14731258153915405</v>
+        <v>0.1340169757604599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.22289662063121796</v>
+        <v>0.076571449637413025</v>
       </c>
       <c r="C3" s="1">
-        <v>0.24766184389591217</v>
+        <v>0.18527555465698242</v>
       </c>
       <c r="D3" s="1">
-        <v>0.26223909854888916</v>
+        <v>0.2434806227684021</v>
       </c>
       <c r="E3" s="1">
-        <v>0.23815417289733887</v>
+        <v>0.14731258153915405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.28669428825378418</v>
+        <v>0.22289662063121796</v>
       </c>
       <c r="C4" s="1">
-        <v>0.21613697707653046</v>
+        <v>0.24766184389591217</v>
       </c>
       <c r="D4" s="1">
-        <v>0.20872865617275238</v>
+        <v>0.26223909854888916</v>
       </c>
       <c r="E4" s="1">
-        <v>0.22096888720989227</v>
+        <v>0.23815417289733887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28727763891220093</v>
+        <v>0.28669428825378418</v>
       </c>
       <c r="C5" s="1">
-        <v>0.23321563005447388</v>
+        <v>0.21613697707653046</v>
       </c>
       <c r="D5" s="1">
-        <v>0.19831933081150055</v>
+        <v>0.20872865617275238</v>
       </c>
       <c r="E5" s="1">
-        <v>0.25597596168518066</v>
+        <v>0.22096888720989227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.20193576812744141</v>
+        <v>0.28727763891220093</v>
       </c>
       <c r="C6" s="1">
-        <v>0.12676297128200531</v>
+        <v>0.23321563005447388</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1572783887386322</v>
+        <v>0.19831933081150055</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1068599745631218</v>
+        <v>0.25597596168518066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.29177975654602051</v>
+        <v>0.20193576812744141</v>
       </c>
       <c r="C7" s="1">
-        <v>0.62921351194381714</v>
+        <v>0.12676297128200531</v>
       </c>
       <c r="D7" s="1">
-        <v>0.55126053094863892</v>
+        <v>0.1572783887386322</v>
       </c>
       <c r="E7" s="1">
-        <v>0.68005657196044922</v>
+        <v>0.1068599745631218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.29408648610115051</v>
+        <v>0.29177975654602051</v>
       </c>
       <c r="C8" s="1">
-        <v>0.086527556180953979</v>
+        <v>0.62921351194381714</v>
       </c>
       <c r="D8" s="1">
-        <v>0.097966931760311127</v>
+        <v>0.55126053094863892</v>
       </c>
       <c r="E8" s="1">
-        <v>0.079066477715969086</v>
+        <v>0.68005657196044922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.077704772353172302</v>
+        <v>0.29408648610115051</v>
       </c>
       <c r="C9" s="1">
-        <v>0.049224182963371277</v>
+        <v>0.086527556180953979</v>
       </c>
       <c r="D9" s="1">
-        <v>0.069612361490726471</v>
+        <v>0.097966931760311127</v>
       </c>
       <c r="E9" s="1">
-        <v>0.035926450043916702</v>
+        <v>0.079066477715969086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.081964179873466492</v>
+        <v>0.077704772353172302</v>
       </c>
       <c r="C10" s="1">
-        <v>0.10621722787618637</v>
+        <v>0.049224182963371277</v>
       </c>
       <c r="D10" s="1">
-        <v>0.13786934316158295</v>
+        <v>0.069612361490726471</v>
       </c>
       <c r="E10" s="1">
-        <v>0.085572846233844757</v>
+        <v>0.035926450043916702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.16871547698974609</v>
+        <v>0.081964179873466492</v>
       </c>
       <c r="C11" s="1">
-        <v>0.14033173024654388</v>
+        <v>0.10621722787618637</v>
       </c>
       <c r="D11" s="1">
-        <v>0.13683925569057465</v>
+        <v>0.13786934316158295</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1426096111536026</v>
+        <v>0.085572846233844757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.058235716074705124</v>
+        <v>0.16871547698974609</v>
       </c>
       <c r="C12" s="1">
-        <v>0.02491171658039093</v>
+        <v>0.14033173024654388</v>
       </c>
       <c r="D12" s="1">
-        <v>0.052317701280117035</v>
+        <v>0.13683925569057465</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0070367748849093914</v>
+        <v>0.1426096111536026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.052239585667848587</v>
+        <v>0.058235716074705124</v>
       </c>
       <c r="C13" s="1">
-        <v>0.037838418036699295</v>
+        <v>0.02491171658039093</v>
       </c>
       <c r="D13" s="1">
-        <v>0.027703985571861267</v>
+        <v>0.052317701280117035</v>
       </c>
       <c r="E13" s="1">
-        <v>0.044448371976613998</v>
+        <v>0.0070367748849093914</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.48235338926315308</v>
+        <v>0.052239585667848587</v>
       </c>
       <c r="C14" s="1">
-        <v>0.60524344444274902</v>
+        <v>0.037838418036699295</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.027703985571861267</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0.044448371976613998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.029709011316299438</v>
+        <v>0.48235338926315308</v>
       </c>
       <c r="C15" s="1">
-        <v>0.016051365062594414</v>
+        <v>0.60524344444274902</v>
       </c>
       <c r="D15" s="1">
-        <v>0.016806723549962044</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.015558699145913124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.065233796834945679</v>
+        <v>0.029709011316299438</v>
       </c>
       <c r="C16" s="1">
-        <v>0.31009095907211304</v>
+        <v>0.016051365062594414</v>
       </c>
       <c r="D16" s="1">
-        <v>0.15023040771484375</v>
+        <v>0.016806723549962044</v>
       </c>
       <c r="E16" s="1">
-        <v>0.41435644030570984</v>
+        <v>0.015558699145913124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.082939416170120239</v>
+        <v>0.065233796834945679</v>
       </c>
       <c r="C17" s="1">
-        <v>0.063049755990505219</v>
+        <v>0.31009095907211304</v>
       </c>
       <c r="D17" s="1">
-        <v>0.067931689321994781</v>
+        <v>0.15023040771484375</v>
       </c>
       <c r="E17" s="1">
-        <v>0.05986563116312027</v>
+        <v>0.41435644030570984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.13771729171276093</v>
+        <v>0.082939416170120239</v>
       </c>
       <c r="C18" s="1">
-        <v>0.05202782154083252</v>
+        <v>0.063049755990505219</v>
       </c>
       <c r="D18" s="1">
-        <v>0.069015994668006897</v>
+        <v>0.067931689321994781</v>
       </c>
       <c r="E18" s="1">
-        <v>0.040947664529085159</v>
+        <v>0.05986563116312027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.035849869251251221</v>
+        <v>0.13771729171276093</v>
       </c>
       <c r="C19" s="1">
-        <v>0.018726591020822525</v>
+        <v>0.05202782154083252</v>
       </c>
       <c r="D19" s="1">
-        <v>0.028083492070436478</v>
+        <v>0.069015994668006897</v>
       </c>
       <c r="E19" s="1">
-        <v>0.012623762711882591</v>
+        <v>0.040947664529085159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.10269792377948761</v>
+        <v>0.035849869251251221</v>
       </c>
       <c r="C20" s="1">
-        <v>0.096800431609153748</v>
+        <v>0.018726591020822525</v>
       </c>
       <c r="D20" s="1">
-        <v>0.070967741310596466</v>
+        <v>0.028083492070436478</v>
       </c>
       <c r="E20" s="1">
-        <v>0.11364921927452087</v>
+        <v>0.012623762711882591</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.51764661073684692</v>
+        <v>0.10269792377948761</v>
       </c>
       <c r="C21" s="1">
-        <v>0.39475655555725098</v>
+        <v>0.096800431609153748</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0.070967741310596466</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.11364921927452087</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>0.050355914980173111</v>
+        <v>0.51764661073684692</v>
       </c>
       <c r="C22" s="1">
-        <v>0.041797753423452377</v>
+        <v>0.39475655555725098</v>
       </c>
       <c r="D22" s="1">
-        <v>0.042558960616588593</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0.041301272809505463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.094301559031009674</v>
+        <v>0.050355914980173111</v>
       </c>
       <c r="C23" s="1">
-        <v>0.044387374073266983</v>
+        <v>0.041797753423452377</v>
       </c>
       <c r="D23" s="1">
-        <v>0.024884792044758797</v>
+        <v>0.042558960616588593</v>
       </c>
       <c r="E23" s="1">
-        <v>0.057107497006654739</v>
+        <v>0.041301272809505463</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.017627688124775887</v>
+        <v>0.094301559031009674</v>
       </c>
       <c r="C24" s="1">
-        <v>0.073472447693347931</v>
+        <v>0.044387374073266983</v>
       </c>
       <c r="D24" s="1">
-        <v>0.13488750159740448</v>
+        <v>0.024884792044758797</v>
       </c>
       <c r="E24" s="1">
-        <v>0.033415842801332474</v>
+        <v>0.057107497006654739</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.017627688124775887</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.073472447693347931</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.13488750159740448</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.033415842801332474</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>0.047405723482370377</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>0.021872658282518387</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.041257794946432114</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.0092291375622153282</v>
       </c>
     </row>
